--- a/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.24471</v>
+        <v>9.269297</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.688921</v>
       </c>
       <c r="F2" t="n">
-        <v>4.591021</v>
+        <v>5.548269</v>
       </c>
       <c r="G2" t="n">
-        <v>9.24471</v>
+        <v>3.580376</v>
       </c>
       <c r="H2" t="n">
-        <v>4.653689</v>
+        <v>3.721028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.264325</v>
+        <v>8.668875999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.458872</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.814643</v>
       </c>
       <c r="G3" t="n">
-        <v>6.264325</v>
+        <v>4.210003999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>6.264325</v>
+        <v>1.854232999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE303R01014</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kalyan Jewellers India Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.815869</v>
+        <v>7.780966</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9.24471</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.815869</v>
+        <v>-1.463743999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>5.815869</v>
+        <v>7.780966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Bharti Airtel Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.688921</v>
+        <v>6.797444</v>
       </c>
       <c r="E5" t="n">
-        <v>5.548269</v>
+        <v>5.218497</v>
       </c>
       <c r="F5" t="n">
-        <v>5.747613</v>
+        <v>4.997126</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1406519999999993</v>
+        <v>1.578946999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05869200000000063</v>
+        <v>1.800318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.265807</v>
+        <v>5.002997</v>
       </c>
       <c r="E6" t="n">
-        <v>5.311591</v>
+        <v>4.890458</v>
       </c>
       <c r="F6" t="n">
-        <v>5.644254</v>
+        <v>4.631196</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04578400000000027</v>
+        <v>0.1125389999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3784470000000004</v>
+        <v>0.3718009999999996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.218497</v>
+        <v>4.973993</v>
       </c>
       <c r="E7" t="n">
-        <v>4.997126</v>
+        <v>5.265807</v>
       </c>
       <c r="F7" t="n">
-        <v>5.164704</v>
+        <v>5.311591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2213710000000004</v>
+        <v>-0.2918139999999996</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05379299999999976</v>
+        <v>-0.3375979999999998</v>
       </c>
     </row>
     <row r="8">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>4.644474</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.214247</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.978789</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.005953</v>
-      </c>
       <c r="G8" t="n">
-        <v>-0.7645419999999996</v>
+        <v>-0.5697730000000005</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2082940000000004</v>
+        <v>-1.334315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE061F01013</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Fortis Healthcare Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.92361</v>
+        <v>4.392929</v>
       </c>
       <c r="E9" t="n">
-        <v>4.622506</v>
+        <v>4.549517</v>
       </c>
       <c r="F9" t="n">
-        <v>4.763216</v>
+        <v>4.538125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3011040000000005</v>
+        <v>-0.1565880000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1603940000000001</v>
+        <v>-0.1451960000000003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE020B01018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Rural Electrification Corporation Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.890458</v>
+        <v>4.362757</v>
       </c>
       <c r="E10" t="n">
-        <v>4.631196</v>
+        <v>4.264898</v>
       </c>
       <c r="F10" t="n">
-        <v>4.617115</v>
+        <v>4.083341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2592619999999997</v>
+        <v>0.09785900000000058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2733429999999997</v>
+        <v>0.2794160000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE061F01013</t>
+          <t>INE303R01014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fortis Healthcare Ltd</t>
+          <t>Kalyan Jewellers India Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.549517</v>
+        <v>4.344148</v>
       </c>
       <c r="E11" t="n">
-        <v>4.538125</v>
+        <v>5.815869</v>
       </c>
       <c r="F11" t="n">
-        <v>5.340472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01139199999999985</v>
+        <v>-1.471721000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7909550000000003</v>
+        <v>4.344148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE758T01015</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Eternal Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.458872</v>
+        <v>4.258939</v>
       </c>
       <c r="E12" t="n">
-        <v>6.814643</v>
+        <v>4.317692</v>
       </c>
       <c r="F12" t="n">
-        <v>7.410043</v>
+        <v>4.470905</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.355771</v>
+        <v>-0.05875300000000028</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.951171</v>
+        <v>-0.2119660000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE758T01015</t>
+          <t>INE584A01023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eternal Limited</t>
+          <t>NMDC Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.317692</v>
+        <v>1.954854</v>
       </c>
       <c r="E13" t="n">
-        <v>4.470905</v>
+        <v>1.99717</v>
       </c>
       <c r="F13" t="n">
-        <v>5.00477</v>
+        <v>4.541295</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.153213</v>
+        <v>-0.0423159999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6870779999999996</v>
+        <v>-2.586441</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE020B01018</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rural Electrification Corporation Ltd</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.264898</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.083341</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4.483894</v>
+        <v>2.575401</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1815569999999997</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2189960000000006</v>
+        <v>-2.575401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.057868</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.264325</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.057868</v>
+        <v>-6.264325</v>
       </c>
       <c r="H15" t="n">
-        <v>3.057868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE584A01023</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NMDC Ltd</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.99717</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.541295</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.922647</v>
+        <v>2.655749</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.544125</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.925477000000001</v>
+        <v>-2.655749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE437A01024</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apollo Hospitals Enterprise Ltd</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.50322</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.023172</v>
       </c>
       <c r="G17" t="n">
-        <v>1.50322</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.50322</v>
+        <v>-5.023172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE437A01024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>Apollo Hospitals Enterprise Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5.023172</v>
+        <v>1.50322</v>
       </c>
       <c r="F18" t="n">
-        <v>5.950184</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.023172</v>
+        <v>-1.50322</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.950184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.655749</v>
+        <v>4.92361</v>
       </c>
       <c r="F19" t="n">
-        <v>2.919461</v>
+        <v>4.622506</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.655749</v>
+        <v>-4.92361</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.919461</v>
+        <v>-4.622506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.575401</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.465903</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.575401</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.465903</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE647A01010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JSW Steel Limited</t>
+          <t>SRF Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1106,24 +1106,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.095238</v>
+        <v>1.264205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.095238</v>
+        <v>-1.264205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,80 +1135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.057868</v>
       </c>
       <c r="F22" t="n">
-        <v>4.026852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-3.057868</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.026852</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>INE484J01027</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Godrej Properties Limited</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>quant Equity Savings Fund</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.465903</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.820804</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-2.465903</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-2.820804</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>INE647A01010</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SRF Limited</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>quant Equity Savings Fund</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.264205</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.338015</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1.264205</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-1.338015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.269297</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5.688921</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.548269</v>
-      </c>
       <c r="G2" t="n">
+        <v>5.747613</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.580376</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.721028</v>
+      <c r="I2" t="n">
+        <v>3.521684</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.668875999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.458872</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.814643</v>
-      </c>
       <c r="G3" t="n">
+        <v>7.410043</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.210003999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.854232999999999</v>
+      <c r="I3" t="n">
+        <v>1.258832999999999</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.780966</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.24471</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>4.591021</v>
+      </c>
+      <c r="H4" t="n">
         <v>-1.463743999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>7.780966</v>
+      <c r="I4" t="n">
+        <v>3.189945000000001</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>6.797444</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.218497</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.997126</v>
-      </c>
       <c r="G5" t="n">
+        <v>5.164704</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.578946999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.800318</v>
+      <c r="I5" t="n">
+        <v>1.632739999999999</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>5.002997</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.890458</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.631196</v>
-      </c>
       <c r="G6" t="n">
+        <v>4.617115</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1125389999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.3718009999999996</v>
+      <c r="I6" t="n">
+        <v>0.3858819999999996</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.973993</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.265807</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.311591</v>
-      </c>
       <c r="G7" t="n">
+        <v>5.644254</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.2918139999999996</v>
       </c>
-      <c r="H7" t="n">
-        <v>-0.3375979999999998</v>
+      <c r="I7" t="n">
+        <v>-0.670261</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>4.644474</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.214247</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.978789</v>
-      </c>
       <c r="G8" t="n">
+        <v>5.005953</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.5697730000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>-1.334315</v>
+      <c r="I8" t="n">
+        <v>-0.3614790000000001</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.392929</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.549517</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.538125</v>
-      </c>
       <c r="G9" t="n">
+        <v>5.340472</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.1565880000000002</v>
       </c>
-      <c r="H9" t="n">
-        <v>-0.1451960000000003</v>
+      <c r="I9" t="n">
+        <v>-0.9475430000000005</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.362757</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.264898</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.083341</v>
-      </c>
       <c r="G10" t="n">
+        <v>4.483894</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.09785900000000058</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.2794160000000003</v>
+      <c r="I10" t="n">
+        <v>-0.1211370000000001</v>
       </c>
     </row>
     <row r="11">
@@ -779,19 +829,24 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.344148</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>5.815869</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>-1.471721000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>4.344148</v>
       </c>
     </row>
@@ -811,20 +866,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>4.258939</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.317692</v>
       </c>
-      <c r="F12" t="n">
-        <v>4.470905</v>
-      </c>
       <c r="G12" t="n">
+        <v>5.00477</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.05875300000000028</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.2119660000000003</v>
+      <c r="I12" t="n">
+        <v>-0.7458309999999999</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +903,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1.954854</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.99717</v>
       </c>
-      <c r="F13" t="n">
-        <v>4.541295</v>
-      </c>
       <c r="G13" t="n">
+        <v>4.922647</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.0423159999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>-2.586441</v>
+      <c r="I13" t="n">
+        <v>-2.967793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.575401</v>
+        <v>6.264325</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.575401</v>
+        <v>-6.264325</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>JSW Steel Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,20 +977,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>6.264325</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.264325</v>
+        <v>3.095238</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3.095238</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.655749</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.919461</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.655749</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.919461</v>
       </c>
     </row>
     <row r="17">
@@ -971,31 +1051,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.023172</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.950184</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.023172</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-5.950184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE437A01024</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apollo Hospitals Enterprise Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>1.50322</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.50322</v>
+        <v>4.026852</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.026852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE437A01024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Apollo Hospitals Enterprise Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>4.92361</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.622506</v>
+        <v>1.50322</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.92361</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.622506</v>
+        <v>-1.50322</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.465903</v>
+        <v>4.92361</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.763216</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.465903</v>
+        <v>-4.92361</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4.763216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE647A01010</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SRF Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,51 +1199,98 @@
           <t>quant Equity Savings Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.264205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.820804</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.264205</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.820804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>INE647A01010</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SRF Limited</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.338015</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.338015</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>INE917I01010</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Bajaj Auto Limited</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>quant Equity Savings Fund</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3.057868</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>-3.057868</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Equity_Savings_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.269297</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5.688921</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.747613</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3.580376</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.521684</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.668875999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4.458872</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>7.410043</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>4.210003999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.258832999999999</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.780966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.24471</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.591021</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-1.463743999999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3.189945000000001</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.797444</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.218497</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5.164704</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1.578946999999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.632739999999999</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.002997</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.890458</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.617115</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.1125389999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.3858819999999996</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.973993</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.265807</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.644254</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.2918139999999996</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.670261</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.644474</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.214247</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.005953</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.5697730000000005</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-0.3614790000000001</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.392929</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.549517</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.340472</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.1565880000000002</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.9475430000000005</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.362757</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.264898</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>4.483894</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.09785900000000058</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.1211370000000001</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.344148</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>5.815869</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>-1.471721000000001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>4.344148</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.258939</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.317692</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5.00477</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.05875300000000028</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.7458309999999999</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.954854</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.99717</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4.922647</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.0423159999999998</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-2.967793</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>6.264325</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>-6.264325</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.095238</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-3.095238</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.919461</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-2.919461</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.950184</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-5.950184</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.026852</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-4.026852</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.50322</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-1.50322</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>4.92361</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>4.763216</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-4.92361</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-4.763216</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.820804</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-2.820804</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.338015</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-1.338015</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Equity Savings Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Equity Savings Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.057868</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-3.057868</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
